--- a/Ejercicios/Sesión 01/Ejercicio 01 - Atajos.xlsx
+++ b/Ejercicios/Sesión 01/Ejercicio 01 - Atajos.xlsx
@@ -16,7 +16,6 @@
     <definedName name="Multiplo">Hoja1!$Q$24</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2270,51 +2269,51 @@
       <c r="G50" s="1"/>
       <c r="J50" s="1">
         <f t="shared" ref="J50:O61" ca="1" si="0">RAND()</f>
-        <v>0.65580634994370912</v>
+        <v>0.31501989163323696</v>
       </c>
       <c r="K50" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11265323402070404</v>
+        <v>0.6923833136618418</v>
       </c>
       <c r="L50" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89895923802285205</v>
+        <v>0.60066701101135467</v>
       </c>
       <c r="M50" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43363978487692201</v>
+        <v>0.92354529708265687</v>
       </c>
       <c r="N50" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65285165360965569</v>
+        <v>0.13219090216904839</v>
       </c>
       <c r="O50" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75449320703248923</v>
+        <v>0.55478060743501501</v>
       </c>
       <c r="T50" s="1">
         <f ca="1">J50</f>
-        <v>0.65580634994370912</v>
+        <v>0.31501989163323696</v>
       </c>
       <c r="U50" s="1">
         <f t="shared" ref="U50:Y50" ca="1" si="1">K50</f>
-        <v>0.11265323402070404</v>
+        <v>0.6923833136618418</v>
       </c>
       <c r="V50" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89895923802285205</v>
+        <v>0.60066701101135467</v>
       </c>
       <c r="W50" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43363978487692201</v>
+        <v>0.92354529708265687</v>
       </c>
       <c r="X50" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65285165360965569</v>
+        <v>0.13219090216904839</v>
       </c>
       <c r="Y50" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75449320703248923</v>
+        <v>0.55478060743501501</v>
       </c>
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
@@ -2334,51 +2333,51 @@
       <c r="G51" s="1"/>
       <c r="J51" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80007566671507258</v>
+        <v>0.16752389402295098</v>
       </c>
       <c r="K51" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5871509141109685E-2</v>
+        <v>0.11139008890908719</v>
       </c>
       <c r="L51" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43772170447562664</v>
+        <v>0.85364746467996111</v>
       </c>
       <c r="M51" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70128149660326344</v>
+        <v>0.14984880950771384</v>
       </c>
       <c r="N51" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96998378995799017</v>
+        <v>0.6853210121146448</v>
       </c>
       <c r="O51" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70431961930072984</v>
+        <v>0.92700746437000758</v>
       </c>
       <c r="T51" s="1">
         <f ca="1">J51</f>
-        <v>0.80007566671507258</v>
+        <v>0.16752389402295098</v>
       </c>
       <c r="U51" s="1">
         <f ca="1">K51</f>
-        <v>1.5871509141109685E-2</v>
+        <v>0.11139008890908719</v>
       </c>
       <c r="V51" s="1">
         <f t="shared" ref="V51:V61" ca="1" si="2">L51</f>
-        <v>0.43772170447562664</v>
+        <v>0.85364746467996111</v>
       </c>
       <c r="W51" s="1">
         <f t="shared" ref="W51:W61" ca="1" si="3">M51</f>
-        <v>0.70128149660326344</v>
+        <v>0.14984880950771384</v>
       </c>
       <c r="X51" s="1">
         <f t="shared" ref="X51:X61" ca="1" si="4">N51</f>
-        <v>0.96998378995799017</v>
+        <v>0.6853210121146448</v>
       </c>
       <c r="Y51" s="1">
         <f t="shared" ref="Y51:Y61" ca="1" si="5">O51</f>
-        <v>0.70431961930072984</v>
+        <v>0.92700746437000758</v>
       </c>
       <c r="Z51" s="1"/>
       <c r="AA51" s="1"/>
@@ -2396,51 +2395,51 @@
       <c r="G52" s="1"/>
       <c r="J52" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40586682840491239</v>
+        <v>0.63948642043848047</v>
       </c>
       <c r="K52" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40537799174766997</v>
+        <v>0.52891310453411033</v>
       </c>
       <c r="L52" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61897097828517356</v>
+        <v>0.75423463651524658</v>
       </c>
       <c r="M52" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8.5351554119420303E-2</v>
+        <v>0.88253969133364851</v>
       </c>
       <c r="N52" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54282514611298949</v>
+        <v>0.78188758901444122</v>
       </c>
       <c r="O52" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52965922906855956</v>
+        <v>0.95013175980804565</v>
       </c>
       <c r="T52" s="1">
         <f ca="1">J52</f>
-        <v>0.40586682840491239</v>
+        <v>0.63948642043848047</v>
       </c>
       <c r="U52" s="1">
         <f t="shared" ref="U52:U61" ca="1" si="6">K52</f>
-        <v>0.40537799174766997</v>
+        <v>0.52891310453411033</v>
       </c>
       <c r="V52" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.61897097828517356</v>
+        <v>0.75423463651524658</v>
       </c>
       <c r="W52" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>8.5351554119420303E-2</v>
+        <v>0.88253969133364851</v>
       </c>
       <c r="X52" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.54282514611298949</v>
+        <v>0.78188758901444122</v>
       </c>
       <c r="Y52" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.52965922906855956</v>
+        <v>0.95013175980804565</v>
       </c>
       <c r="Z52" s="1"/>
       <c r="AA52" s="1"/>
@@ -2458,51 +2457,51 @@
       <c r="G53" s="1"/>
       <c r="J53" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68505284658776044</v>
+        <v>0.88069790821619676</v>
       </c>
       <c r="K53" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47093015815499661</v>
+        <v>0.32058173559555103</v>
       </c>
       <c r="L53" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69034817974471563</v>
+        <v>0.8985677776079869</v>
       </c>
       <c r="M53" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45887064971090441</v>
+        <v>8.7562502173691437E-3</v>
       </c>
       <c r="N53" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46958215097827904</v>
+        <v>0.83233175290975092</v>
       </c>
       <c r="O53" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.645512830799134E-2</v>
+        <v>0.47735079365554334</v>
       </c>
       <c r="T53" s="1">
         <f ca="1">J53</f>
-        <v>0.68505284658776044</v>
+        <v>0.88069790821619676</v>
       </c>
       <c r="U53" s="1">
         <f ca="1">K53</f>
-        <v>0.47093015815499661</v>
+        <v>0.32058173559555103</v>
       </c>
       <c r="V53" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.69034817974471563</v>
+        <v>0.8985677776079869</v>
       </c>
       <c r="W53" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.45887064971090441</v>
+        <v>8.7562502173691437E-3</v>
       </c>
       <c r="X53" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.46958215097827904</v>
+        <v>0.83233175290975092</v>
       </c>
       <c r="Y53" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1.645512830799134E-2</v>
+        <v>0.47735079365554334</v>
       </c>
       <c r="Z53" s="1"/>
       <c r="AA53" s="1"/>
@@ -2520,51 +2519,51 @@
       <c r="G54" s="1"/>
       <c r="J54" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55383937430611685</v>
+        <v>2.7118175948870338E-4</v>
       </c>
       <c r="K54" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66653824486637891</v>
+        <v>0.37193149233214229</v>
       </c>
       <c r="L54" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49495326478702384</v>
+        <v>0.44993550652952286</v>
       </c>
       <c r="M54" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20586061507228648</v>
+        <v>0.39562846940540231</v>
       </c>
       <c r="N54" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79225747594221974</v>
+        <v>0.33837285488775826</v>
       </c>
       <c r="O54" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71578152101253401</v>
+        <v>0.68349612515268554</v>
       </c>
       <c r="T54" s="1">
         <f t="shared" ref="T54:T61" ca="1" si="7">J54</f>
-        <v>0.55383937430611685</v>
+        <v>2.7118175948870338E-4</v>
       </c>
       <c r="U54" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.66653824486637891</v>
+        <v>0.37193149233214229</v>
       </c>
       <c r="V54" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.49495326478702384</v>
+        <v>0.44993550652952286</v>
       </c>
       <c r="W54" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.20586061507228648</v>
+        <v>0.39562846940540231</v>
       </c>
       <c r="X54" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.79225747594221974</v>
+        <v>0.33837285488775826</v>
       </c>
       <c r="Y54" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.71578152101253401</v>
+        <v>0.68349612515268554</v>
       </c>
       <c r="Z54" s="1"/>
       <c r="AA54" s="1"/>
@@ -2582,51 +2581,51 @@
       <c r="G55" s="1"/>
       <c r="J55" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80912731703214946</v>
+        <v>0.96143642304913912</v>
       </c>
       <c r="K55" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63530130539460983</v>
+        <v>0.42073737430696634</v>
       </c>
       <c r="L55" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36893291469630751</v>
+        <v>0.59907608709285198</v>
       </c>
       <c r="M55" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9228663078161214E-2</v>
+        <v>0.36774810456178753</v>
       </c>
       <c r="N55" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6999453890292364E-2</v>
+        <v>0.85945003965831335</v>
       </c>
       <c r="O55" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54536329971908326</v>
+        <v>0.32837058236001482</v>
       </c>
       <c r="T55" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.80912731703214946</v>
+        <v>0.96143642304913912</v>
       </c>
       <c r="U55" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.63530130539460983</v>
+        <v>0.42073737430696634</v>
       </c>
       <c r="V55" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.36893291469630751</v>
+        <v>0.59907608709285198</v>
       </c>
       <c r="W55" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5.9228663078161214E-2</v>
+        <v>0.36774810456178753</v>
       </c>
       <c r="X55" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4.6999453890292364E-2</v>
+        <v>0.85945003965831335</v>
       </c>
       <c r="Y55" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.54536329971908326</v>
+        <v>0.32837058236001482</v>
       </c>
       <c r="Z55" s="1"/>
       <c r="AA55" s="1"/>
@@ -2644,51 +2643,51 @@
       <c r="G56" s="1"/>
       <c r="J56" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60591444597411015</v>
+        <v>0.88199950192387988</v>
       </c>
       <c r="K56" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43283797956143844</v>
+        <v>0.71159987796370494</v>
       </c>
       <c r="L56" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98252328343792161</v>
+        <v>0.50238935159038556</v>
       </c>
       <c r="M56" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60780458403243842</v>
+        <v>0.21490535168634839</v>
       </c>
       <c r="N56" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34512952946181163</v>
+        <v>0.91733207909144987</v>
       </c>
       <c r="O56" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51694466737782474</v>
+        <v>0.61128903410569402</v>
       </c>
       <c r="T56" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.60591444597411015</v>
+        <v>0.88199950192387988</v>
       </c>
       <c r="U56" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.43283797956143844</v>
+        <v>0.71159987796370494</v>
       </c>
       <c r="V56" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.98252328343792161</v>
+        <v>0.50238935159038556</v>
       </c>
       <c r="W56" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.60780458403243842</v>
+        <v>0.21490535168634839</v>
       </c>
       <c r="X56" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.34512952946181163</v>
+        <v>0.91733207909144987</v>
       </c>
       <c r="Y56" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.51694466737782474</v>
+        <v>0.61128903410569402</v>
       </c>
       <c r="Z56" s="1"/>
       <c r="AA56" s="1"/>
@@ -2706,51 +2705,51 @@
       <c r="G57" s="1"/>
       <c r="J57" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48445724129165535</v>
+        <v>4.1900021949555222E-2</v>
       </c>
       <c r="K57" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94489423955489249</v>
+        <v>0.9713313151436499</v>
       </c>
       <c r="L57" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83311434345936952</v>
+        <v>6.557815065120931E-2</v>
       </c>
       <c r="M57" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11333819020248137</v>
+        <v>0.49194903964404435</v>
       </c>
       <c r="N57" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37559907210493071</v>
+        <v>0.72074378727961119</v>
       </c>
       <c r="O57" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31078758012299035</v>
+        <v>0.81467139114263609</v>
       </c>
       <c r="T57" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.48445724129165535</v>
+        <v>4.1900021949555222E-2</v>
       </c>
       <c r="U57" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.94489423955489249</v>
+        <v>0.9713313151436499</v>
       </c>
       <c r="V57" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.83311434345936952</v>
+        <v>6.557815065120931E-2</v>
       </c>
       <c r="W57" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11333819020248137</v>
+        <v>0.49194903964404435</v>
       </c>
       <c r="X57" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.37559907210493071</v>
+        <v>0.72074378727961119</v>
       </c>
       <c r="Y57" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.31078758012299035</v>
+        <v>0.81467139114263609</v>
       </c>
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
@@ -2768,51 +2767,51 @@
       <c r="G58" s="1"/>
       <c r="J58" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18019778987950374</v>
+        <v>0.42895393864076925</v>
       </c>
       <c r="K58" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9276986235118897</v>
+        <v>0.72028615056679157</v>
       </c>
       <c r="L58" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24487863923343545</v>
+        <v>0.42148077240028514</v>
       </c>
       <c r="M58" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43635496305203114</v>
+        <v>0.78852984118527636</v>
       </c>
       <c r="N58" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97925161229584834</v>
+        <v>0.78541841747173258</v>
       </c>
       <c r="O58" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77033150883513102</v>
+        <v>0.30983632925639326</v>
       </c>
       <c r="T58" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.18019778987950374</v>
+        <v>0.42895393864076925</v>
       </c>
       <c r="U58" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.9276986235118897</v>
+        <v>0.72028615056679157</v>
       </c>
       <c r="V58" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.24487863923343545</v>
+        <v>0.42148077240028514</v>
       </c>
       <c r="W58" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43635496305203114</v>
+        <v>0.78852984118527636</v>
       </c>
       <c r="X58" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.97925161229584834</v>
+        <v>0.78541841747173258</v>
       </c>
       <c r="Y58" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.77033150883513102</v>
+        <v>0.30983632925639326</v>
       </c>
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
@@ -2830,51 +2829,51 @@
       <c r="G59" s="1"/>
       <c r="J59" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33829867062680752</v>
+        <v>0.54581644118222694</v>
       </c>
       <c r="K59" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5.4763205581246366E-2</v>
+        <v>0.8180626908558889</v>
       </c>
       <c r="L59" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94032728510545693</v>
+        <v>0.13673010610652991</v>
       </c>
       <c r="M59" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56460739116351788</v>
+        <v>0.69284645752758989</v>
       </c>
       <c r="N59" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78370665398203188</v>
+        <v>0.20593139324471388</v>
       </c>
       <c r="O59" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61239702265060292</v>
+        <v>0.89465866772392522</v>
       </c>
       <c r="T59" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.33829867062680752</v>
+        <v>0.54581644118222694</v>
       </c>
       <c r="U59" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>5.4763205581246366E-2</v>
+        <v>0.8180626908558889</v>
       </c>
       <c r="V59" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.94032728510545693</v>
+        <v>0.13673010610652991</v>
       </c>
       <c r="W59" s="1">
         <f ca="1">M59</f>
-        <v>0.56460739116351788</v>
+        <v>0.69284645752758989</v>
       </c>
       <c r="X59" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.78370665398203188</v>
+        <v>0.20593139324471388</v>
       </c>
       <c r="Y59" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.61239702265060292</v>
+        <v>0.89465866772392522</v>
       </c>
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
@@ -2892,51 +2891,51 @@
       <c r="G60" s="1"/>
       <c r="J60" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76982184535360054</v>
+        <v>0.73040575033138178</v>
       </c>
       <c r="K60" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27893088884558659</v>
+        <v>0.96383796648193842</v>
       </c>
       <c r="L60" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4003246432946166E-2</v>
+        <v>0.26151484595705754</v>
       </c>
       <c r="M60" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12096927555467596</v>
+        <v>0.45584401262522545</v>
       </c>
       <c r="N60" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3798053520824628</v>
+        <v>0.57401420438023787</v>
       </c>
       <c r="O60" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3464097099512804</v>
+        <v>0.58778994949108188</v>
       </c>
       <c r="T60" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.76982184535360054</v>
+        <v>0.73040575033138178</v>
       </c>
       <c r="U60" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.27893088884558659</v>
+        <v>0.96383796648193842</v>
       </c>
       <c r="V60" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3.4003246432946166E-2</v>
+        <v>0.26151484595705754</v>
       </c>
       <c r="W60" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.12096927555467596</v>
+        <v>0.45584401262522545</v>
       </c>
       <c r="X60" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.3798053520824628</v>
+        <v>0.57401420438023787</v>
       </c>
       <c r="Y60" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.3464097099512804</v>
+        <v>0.58778994949108188</v>
       </c>
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
@@ -2956,51 +2955,51 @@
       </c>
       <c r="J61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54772123611776136</v>
+        <v>0.4147362866755443</v>
       </c>
       <c r="K61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8.3254839924405633E-2</v>
+        <v>0.29821387781910258</v>
       </c>
       <c r="L61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12448879532626378</v>
+        <v>9.6179653654011266E-2</v>
       </c>
       <c r="M61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20035417581630288</v>
+        <v>0.42474220103000704</v>
       </c>
       <c r="N61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53645013572823552</v>
+        <v>0.82158065765674826</v>
       </c>
       <c r="O61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23072011897347666</v>
+        <v>0.79379956818414854</v>
       </c>
       <c r="T61" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.54772123611776136</v>
+        <v>0.4147362866755443</v>
       </c>
       <c r="U61" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>8.3254839924405633E-2</v>
+        <v>0.29821387781910258</v>
       </c>
       <c r="V61" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12448879532626378</v>
+        <v>9.6179653654011266E-2</v>
       </c>
       <c r="W61" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.20035417581630288</v>
+        <v>0.42474220103000704</v>
       </c>
       <c r="X61" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.53645013572823552</v>
+        <v>0.82158065765674826</v>
       </c>
       <c r="Y61" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.23072011897347666</v>
+        <v>0.79379956818414854</v>
       </c>
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
@@ -3089,7 +3088,7 @@
       </c>
       <c r="J65">
         <f t="shared" ref="J65:Y73" ca="1" si="9">RANDBETWEEN(1,$I65)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K65">
         <f t="shared" ca="1" si="9"/>
@@ -3097,11 +3096,11 @@
       </c>
       <c r="L65">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M65">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N65">
         <f t="shared" ca="1" si="9"/>
@@ -3113,7 +3112,7 @@
       </c>
       <c r="P65">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q65">
         <f t="shared" ca="1" si="9"/>
@@ -3129,7 +3128,7 @@
       </c>
       <c r="T65">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U65">
         <f t="shared" ca="1" si="9"/>
@@ -3150,31 +3149,31 @@
       </c>
       <c r="J66">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K66">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L66">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M66">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N66">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O66">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P66">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q66">
         <f t="shared" ca="1" si="9"/>
@@ -3182,19 +3181,19 @@
       </c>
       <c r="R66">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S66">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T66">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U66">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V66">
         <f t="shared" ca="1" si="9"/>
@@ -3206,7 +3205,7 @@
       </c>
       <c r="X66">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.35">
@@ -3215,7 +3214,7 @@
       </c>
       <c r="J67">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K67">
         <f t="shared" ca="1" si="9"/>
@@ -3227,19 +3226,19 @@
       </c>
       <c r="M67">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N67">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O67">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P67">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q67">
         <f t="shared" ca="1" si="9"/>
@@ -3247,15 +3246,15 @@
       </c>
       <c r="R67">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S67">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T67">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U67">
         <f t="shared" ca="1" si="9"/>
@@ -3263,11 +3262,11 @@
       </c>
       <c r="V67">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W67">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X67">
         <f t="shared" ca="1" si="9"/>
@@ -3275,7 +3274,7 @@
       </c>
       <c r="Y67">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.35">
@@ -3284,7 +3283,7 @@
       </c>
       <c r="J68">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K68">
         <f t="shared" ca="1" si="9"/>
@@ -3292,31 +3291,31 @@
       </c>
       <c r="L68">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M68">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N68">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O68">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P68">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q68">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R68">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S68">
         <f t="shared" ca="1" si="9"/>
@@ -3324,15 +3323,15 @@
       </c>
       <c r="T68">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U68">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V68">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W68">
         <f t="shared" ca="1" si="9"/>
@@ -3340,11 +3339,11 @@
       </c>
       <c r="X68">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Y68">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z68">
         <f t="shared" ref="Z68:AE73" ca="1" si="10">RANDBETWEEN(1,$I68)</f>
@@ -3357,11 +3356,11 @@
       </c>
       <c r="J69">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K69">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L69">
         <f t="shared" ca="1" si="9"/>
@@ -3369,39 +3368,39 @@
       </c>
       <c r="M69">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N69">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O69">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P69">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q69">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R69">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S69">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T69">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U69">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V69">
         <f t="shared" ca="1" si="9"/>
@@ -3409,23 +3408,23 @@
       </c>
       <c r="W69">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X69">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y69">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z69">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AA69">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.35">
@@ -3434,11 +3433,11 @@
       </c>
       <c r="J70">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K70">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L70">
         <f t="shared" ca="1" si="9"/>
@@ -3450,63 +3449,63 @@
       </c>
       <c r="N70">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O70">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P70">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q70">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R70">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S70">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T70">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U70">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V70">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W70">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X70">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y70">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Z70">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AA70">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AB70">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.35">
@@ -3515,19 +3514,19 @@
       </c>
       <c r="J71" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K71" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L71" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M71" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N71" s="5">
         <f t="shared" ca="1" si="9"/>
@@ -3539,39 +3538,39 @@
       </c>
       <c r="P71" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q71" s="5">
         <f t="shared" ca="1" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="R71" s="5">
+        <f t="shared" ca="1" si="9"/>
         <v>8</v>
       </c>
-      <c r="R71" s="5">
-        <f t="shared" ca="1" si="9"/>
-        <v>3</v>
-      </c>
       <c r="S71" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T71" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U71" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V71" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W71" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X71" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y71" s="5">
         <f t="shared" ca="1" si="9"/>
@@ -3579,7 +3578,7 @@
       </c>
       <c r="Z71" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AA71" s="5">
         <f t="shared" ca="1" si="10"/>
@@ -3587,11 +3586,11 @@
       </c>
       <c r="AB71" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AC71" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.35">
@@ -3600,19 +3599,19 @@
       </c>
       <c r="J72">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K72">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L72">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M72">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N72">
         <f t="shared" ca="1" si="9"/>
@@ -3620,11 +3619,11 @@
       </c>
       <c r="O72">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P72">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q72">
         <f t="shared" ca="1" si="9"/>
@@ -3632,55 +3631,55 @@
       </c>
       <c r="R72">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S72">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="T72">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U72">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V72">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="W72">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X72">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y72">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z72">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA72">
         <f t="shared" ca="1" si="10"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB72">
         <f t="shared" ca="1" si="10"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC72">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AD72">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.35">
@@ -3689,71 +3688,71 @@
       </c>
       <c r="J73">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K73">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L73">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M73">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N73">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O73">
         <f t="shared" ca="1" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="P73">
+        <f t="shared" ca="1" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" ca="1" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="R73">
+        <f t="shared" ca="1" si="9"/>
         <v>9</v>
       </c>
-      <c r="P73">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="Q73">
-        <f t="shared" ca="1" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="R73">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
-      </c>
       <c r="S73">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="T73">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U73">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="V73">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="W73">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="X73">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Y73">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Z73">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA73">
         <f t="shared" ca="1" si="10"/>
@@ -3761,19 +3760,19 @@
       </c>
       <c r="AB73">
         <f t="shared" ca="1" si="10"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AC73">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AD73">
         <f t="shared" ca="1" si="10"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE73">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3825,7 +3824,7 @@
       </c>
       <c r="L79">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M79">
         <f t="shared" ca="1" si="11"/>
@@ -3833,11 +3832,11 @@
       </c>
       <c r="N79">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O79">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P79">
         <f t="shared" ca="1" si="11"/>
@@ -3845,11 +3844,11 @@
       </c>
       <c r="Q79">
         <f t="shared" ca="1" si="11"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R79">
         <f t="shared" ca="1" si="11"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="S79">
         <f t="shared" ca="1" si="11"/>
@@ -3871,27 +3870,27 @@
       </c>
       <c r="L80">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M80">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N80">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O80">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P80">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q80">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R80">
         <f t="shared" ca="1" si="11"/>
@@ -3899,7 +3898,7 @@
       </c>
       <c r="S80">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="10:22" x14ac:dyDescent="0.35">
@@ -3909,7 +3908,7 @@
       </c>
       <c r="K81">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L81">
         <f t="shared" ca="1" si="11"/>
@@ -3917,31 +3916,31 @@
       </c>
       <c r="M81">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N81">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O81">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P81">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q81">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R81">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S81">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="10:22" x14ac:dyDescent="0.35">
@@ -3959,7 +3958,7 @@
       </c>
       <c r="M82">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N82">
         <f t="shared" ca="1" si="11"/>
@@ -3967,7 +3966,7 @@
       </c>
       <c r="O82">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P82">
         <f t="shared" ca="1" si="11"/>
@@ -3975,7 +3974,7 @@
       </c>
       <c r="Q82">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R82">
         <f t="shared" ca="1" si="11"/>
@@ -3983,7 +3982,7 @@
       </c>
       <c r="S82">
         <f t="shared" ca="1" si="11"/>
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="10:22" x14ac:dyDescent="0.35">
@@ -3997,11 +3996,11 @@
       </c>
       <c r="L83">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M83">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N83">
         <f t="shared" ca="1" si="11"/>
@@ -4009,23 +4008,23 @@
       </c>
       <c r="O83">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P83">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q83">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R83">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S83">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="10:22" x14ac:dyDescent="0.35">
@@ -4035,7 +4034,7 @@
       </c>
       <c r="K84">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L84">
         <f t="shared" ca="1" si="11"/>
@@ -4043,31 +4042,31 @@
       </c>
       <c r="M84">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N84">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O84">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P84">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q84">
         <f t="shared" ca="1" si="11"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R84">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S84">
         <f t="shared" ca="1" si="11"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="10:22" x14ac:dyDescent="0.35">
@@ -4077,15 +4076,15 @@
       </c>
       <c r="K85">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L85">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M85">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N85">
         <f t="shared" ca="1" si="11"/>
@@ -4097,11 +4096,11 @@
       </c>
       <c r="P85">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q85">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R85">
         <f t="shared" ca="1" si="11"/>
@@ -4109,7 +4108,7 @@
       </c>
       <c r="S85">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="10:22" x14ac:dyDescent="0.35">
@@ -4123,35 +4122,35 @@
       </c>
       <c r="L86">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M86">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N86">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O86">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P86">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q86">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R86">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S86">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="10:22" x14ac:dyDescent="0.35">
@@ -4161,7 +4160,7 @@
       </c>
       <c r="K87">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L87">
         <f t="shared" ca="1" si="11"/>
@@ -4169,7 +4168,7 @@
       </c>
       <c r="M87">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N87">
         <f t="shared" ca="1" si="11"/>
@@ -4177,23 +4176,23 @@
       </c>
       <c r="O87">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P87">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q87">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R87">
         <f t="shared" ca="1" si="11"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S87">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="10:22" x14ac:dyDescent="0.35">
@@ -4207,35 +4206,35 @@
       </c>
       <c r="L88">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M88">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N88">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O88">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P88">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q88">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R88">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="S88">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="10:22" x14ac:dyDescent="0.35">
@@ -4245,39 +4244,39 @@
       </c>
       <c r="K89">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L89">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M89">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N89">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O89">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P89">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q89">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R89">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="S89">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="10:22" x14ac:dyDescent="0.35">
@@ -4295,31 +4294,31 @@
       </c>
       <c r="M90">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N90">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O90">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P90">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q90">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R90">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S90">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V90" s="2"/>
     </row>
@@ -4330,27 +4329,27 @@
       </c>
       <c r="L91">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M91">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N91">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O91">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P91">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q91">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R91">
         <f t="shared" ca="1" si="11"/>
@@ -4358,14 +4357,14 @@
       </c>
       <c r="S91">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V91" s="2"/>
     </row>
     <row r="92" spans="10:22" x14ac:dyDescent="0.35">
       <c r="L92">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M92">
         <f t="shared" ca="1" si="11"/>
@@ -4377,15 +4376,15 @@
       </c>
       <c r="O92">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P92">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q92">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R92">
         <f t="shared" ca="1" si="11"/>
@@ -4400,38 +4399,38 @@
     <row r="93" spans="10:22" x14ac:dyDescent="0.35">
       <c r="M93">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N93">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O93">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P93">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q93">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R93">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="S93">
         <f t="shared" ca="1" si="11"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V93" s="2"/>
     </row>
     <row r="94" spans="10:22" x14ac:dyDescent="0.35">
       <c r="N94">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O94">
         <f t="shared" ca="1" si="11"/>
@@ -4439,61 +4438,61 @@
       </c>
       <c r="P94">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q94">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R94">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S94">
         <f t="shared" ca="1" si="11"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="V94" s="2"/>
     </row>
     <row r="95" spans="10:22" x14ac:dyDescent="0.35">
       <c r="O95">
         <f t="shared" ref="O95:S99" ca="1" si="12">RANDBETWEEN(1,O$78)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P95">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q95">
         <f t="shared" ca="1" si="12"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R95">
         <f t="shared" ca="1" si="12"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S95">
         <f t="shared" ca="1" si="12"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="V95" s="2"/>
     </row>
     <row r="96" spans="10:22" x14ac:dyDescent="0.35">
       <c r="P96">
         <f t="shared" ca="1" si="12"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q96">
         <f t="shared" ca="1" si="12"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R96">
         <f t="shared" ca="1" si="12"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S96">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="V96" s="2"/>
     </row>
@@ -4504,29 +4503,29 @@
       </c>
       <c r="R97">
         <f t="shared" ca="1" si="12"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S97">
         <f t="shared" ca="1" si="12"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="V97" s="2"/>
     </row>
     <row r="98" spans="1:56" x14ac:dyDescent="0.35">
       <c r="R98">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S98">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V98" s="2"/>
     </row>
     <row r="99" spans="1:56" x14ac:dyDescent="0.35">
       <c r="S99">
         <f t="shared" ca="1" si="12"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V99" s="2"/>
     </row>
@@ -4538,583 +4537,583 @@
     <row r="105" spans="1:56" x14ac:dyDescent="0.35">
       <c r="I105" s="6">
         <f ca="1">RAND()</f>
-        <v>0.91677801997607078</v>
+        <v>0.87430712026925883</v>
       </c>
       <c r="J105" s="6">
         <f t="shared" ref="J105:BD107" ca="1" si="13">RAND()</f>
-        <v>0.69883935195014524</v>
+        <v>0.97686250797219976</v>
       </c>
       <c r="K105" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.14278679391094962</v>
+        <v>2.6084942197086014E-2</v>
       </c>
       <c r="L105" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.79921478763074594</v>
+        <v>0.71123941864613294</v>
       </c>
       <c r="M105" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.41912130000107151</v>
+        <v>0.99826415926329337</v>
       </c>
       <c r="N105" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.21195066844158794</v>
+        <v>0.63634530946572887</v>
       </c>
       <c r="O105" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.15282123730840191</v>
+        <v>0.64726044246571435</v>
       </c>
       <c r="P105" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.21379289121220946</v>
+        <v>0.63148837295302418</v>
       </c>
       <c r="Q105" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.86580874607033653</v>
+        <v>0.99191931840837733</v>
       </c>
       <c r="R105" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.25165955655858752</v>
+        <v>3.498000374479826E-2</v>
       </c>
       <c r="S105" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.69036263324902658</v>
+        <v>0.89863493184102705</v>
       </c>
       <c r="T105" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.36997723578300767</v>
+        <v>8.1624657080254792E-3</v>
       </c>
       <c r="U105" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.13636952739413688</v>
+        <v>0.86009672404914284</v>
       </c>
       <c r="V105" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.8493491023819979</v>
+        <v>0.37156418975796868</v>
       </c>
       <c r="W105" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.48188859497007641</v>
+        <v>0.68946133403317</v>
       </c>
       <c r="X105" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.52557201555134347</v>
+        <v>0.56530876364082849</v>
       </c>
       <c r="Y105" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.45813388072991945</v>
+        <v>0.49937062334275695</v>
       </c>
       <c r="Z105" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.52342610290164959</v>
+        <v>0.49115353128822736</v>
       </c>
       <c r="AA105" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.2431461095676144</v>
+        <v>0.47991350297560198</v>
       </c>
       <c r="AB105" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>9.1252765352130449E-2</v>
+        <v>0.20223374558518814</v>
       </c>
       <c r="AC105" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.45155179431352033</v>
+        <v>0.2249052373975291</v>
       </c>
       <c r="AD105" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.17538631971145546</v>
+        <v>0.41836961632866665</v>
       </c>
       <c r="AE105" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.77751281044791398</v>
+        <v>0.96663708176871299</v>
       </c>
       <c r="AF105" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.41558224952826184</v>
+        <v>0.77867950605579295</v>
       </c>
       <c r="AG105" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.10688807637046638</v>
+        <v>0.87802265398690404</v>
       </c>
       <c r="AH105" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.61480198499551197</v>
+        <v>0.32089098712816166</v>
       </c>
       <c r="AI105" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.96612488338439517</v>
+        <v>0.9434841915329657</v>
       </c>
       <c r="AJ105" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.41033332208783801</v>
+        <v>0.55769210092909294</v>
       </c>
       <c r="AK105" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.59592499478120387</v>
+        <v>0.49306694990360789</v>
       </c>
       <c r="AL105" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.97584807355157777</v>
+        <v>0.44519972156298437</v>
       </c>
       <c r="AM105" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.60014267077342787</v>
+        <v>0.40483096677077179</v>
       </c>
       <c r="AN105" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.58984122631417302</v>
+        <v>0.36595333164053634</v>
       </c>
       <c r="AO105" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>4.405677273316333E-2</v>
+        <v>0.91662020543047329</v>
       </c>
       <c r="AP105" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.31746962712528415</v>
+        <v>0.50631205635803012</v>
       </c>
       <c r="AQ105" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>3.9871519175364134E-2</v>
+        <v>0.15170529718742554</v>
       </c>
       <c r="AR105" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.74024630828690052</v>
+        <v>0.77219332173901944</v>
       </c>
       <c r="AS105" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.61537265738581759</v>
+        <v>0.83386754493221305</v>
       </c>
       <c r="AT105" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.65163746750663698</v>
+        <v>0.79633967426131269</v>
       </c>
       <c r="AU105" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.46673280255136051</v>
+        <v>0.24647076807811585</v>
       </c>
       <c r="AV105" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.93622280886626719</v>
+        <v>0.10044642762862421</v>
       </c>
       <c r="AW105" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.73141410874010659</v>
+        <v>0.12535092661566738</v>
       </c>
       <c r="AX105" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.30692941903130622</v>
+        <v>0.97125136368324794</v>
       </c>
       <c r="AY105" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.76084631566739203</v>
+        <v>2.1112237046705729E-2</v>
       </c>
       <c r="AZ105" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.65795062654974179</v>
+        <v>0.71961294429298195</v>
       </c>
       <c r="BA105" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.49418362232029156</v>
+        <v>0.39514528104417945</v>
       </c>
       <c r="BB105" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.81957435821935243</v>
+        <v>0.61481403341837637</v>
       </c>
       <c r="BC105" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.99039330811093906</v>
+        <v>0.94788052238521892</v>
       </c>
       <c r="BD105" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.7018074810601509</v>
+        <v>0.70825256646496371</v>
       </c>
     </row>
     <row r="106" spans="1:56" x14ac:dyDescent="0.35">
       <c r="I106" s="6">
         <f ca="1">RAND()</f>
-        <v>0.37263319317322807</v>
+        <v>0.58062245667966017</v>
       </c>
       <c r="J106" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.66983718321814056</v>
+        <v>0.92889743167808858</v>
       </c>
       <c r="K106" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.42892253007369296</v>
+        <v>0.580204477332812</v>
       </c>
       <c r="L106" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.39507135238171265</v>
+        <v>0.8330990090433027</v>
       </c>
       <c r="M106" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.42066105972581902</v>
+        <v>0.62714679478390067</v>
       </c>
       <c r="N106" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>3.452839353892645E-2</v>
+        <v>0.53598602436613541</v>
       </c>
       <c r="O106" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.72593519887111113</v>
+        <v>0.86789782210807942</v>
       </c>
       <c r="P106" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.35470868706238301</v>
+        <v>6.2550748651828414E-2</v>
       </c>
       <c r="Q106" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>9.6948466224653695E-2</v>
+        <v>0.24384932581241581</v>
       </c>
       <c r="R106" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.32624898500580524</v>
+        <v>0.90933906660509867</v>
       </c>
       <c r="S106" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.41539536374241615</v>
+        <v>0.23600096673651205</v>
       </c>
       <c r="T106" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>1.8163960973228144E-2</v>
+        <v>0.17944682628521769</v>
       </c>
       <c r="U106" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.70266178003307855</v>
+        <v>2.6263474525452302E-2</v>
       </c>
       <c r="V106" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.52302292095608249</v>
+        <v>0.86267783022306921</v>
       </c>
       <c r="W106" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.2084270515304566</v>
+        <v>0.87186028824356243</v>
       </c>
       <c r="X106" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.68196686184452449</v>
+        <v>0.11238658521766065</v>
       </c>
       <c r="Y106" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.60646751642147556</v>
+        <v>0.18702727473745628</v>
       </c>
       <c r="Z106" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.21608681901861515</v>
+        <v>0.4427977816462082</v>
       </c>
       <c r="AA106" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>6.2464172220211389E-2</v>
+        <v>0.36034802866319227</v>
       </c>
       <c r="AB106" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.11498047553310575</v>
+        <v>0.9485242833528813</v>
       </c>
       <c r="AC106" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.41716129529614232</v>
+        <v>0.97234720195907842</v>
       </c>
       <c r="AD106" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>1.4201623829200316E-2</v>
+        <v>0.13104261325448308</v>
       </c>
       <c r="AE106" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.92504280798715088</v>
+        <v>0.88247719299810423</v>
       </c>
       <c r="AF106" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.50897596455223615</v>
+        <v>0.60700601069138793</v>
       </c>
       <c r="AG106" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.9128992615643271</v>
+        <v>0.94817300719476716</v>
       </c>
       <c r="AH106" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.11869356198666769</v>
+        <v>0.9614759418187443</v>
       </c>
       <c r="AI106" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.40603031719648652</v>
+        <v>0.59245811927332359</v>
       </c>
       <c r="AJ106" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.44560228103805943</v>
+        <v>9.5882686126828154E-2</v>
       </c>
       <c r="AK106" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.11809878517060679</v>
+        <v>0.49196428698468087</v>
       </c>
       <c r="AL106" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>8.7650468655483205E-2</v>
+        <v>0.78971586320578369</v>
       </c>
       <c r="AM106" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.55318136782271066</v>
+        <v>0.4531883317039832</v>
       </c>
       <c r="AN106" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.1028401013991318</v>
+        <v>0.66402100670478481</v>
       </c>
       <c r="AO106" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.20975618280193575</v>
+        <v>0.85967176753772745</v>
       </c>
       <c r="AP106" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.19324170482662817</v>
+        <v>0.33158118843228102</v>
       </c>
       <c r="AQ106" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>5.3259870480557803E-2</v>
+        <v>0.1343293319153146</v>
       </c>
       <c r="AR106" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.49787758146195515</v>
+        <v>0.2441568066873111</v>
       </c>
       <c r="AS106" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.76585652036268514</v>
+        <v>0.64461207854347868</v>
       </c>
       <c r="AT106" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.48562880028282207</v>
+        <v>2.0538327997458805E-2</v>
       </c>
       <c r="AU106" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.75917682569913225</v>
+        <v>0.10401603440682528</v>
       </c>
       <c r="AV106" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.191427225362236</v>
+        <v>0.87836372768481041</v>
       </c>
       <c r="AW106" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.26697085390972963</v>
+        <v>0.80782744788438343</v>
       </c>
       <c r="AX106" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.26970856370821361</v>
+        <v>0.49485504070837816</v>
       </c>
       <c r="AY106" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.93937715954793088</v>
+        <v>0.51823644135377123</v>
       </c>
       <c r="AZ106" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.44904337059895527</v>
+        <v>5.4218605150995081E-2</v>
       </c>
       <c r="BA106" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.78568443480364503</v>
+        <v>0.59179859436942928</v>
       </c>
       <c r="BB106" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.4203102141690046</v>
+        <v>7.7941562613829229E-2</v>
       </c>
       <c r="BC106" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.86420623202921509</v>
+        <v>0.62890991772025528</v>
       </c>
       <c r="BD106" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.4440854175279052</v>
+        <v>0.41102307993470499</v>
       </c>
     </row>
     <row r="107" spans="1:56" x14ac:dyDescent="0.35">
       <c r="I107" s="6">
         <f ca="1">RAND()</f>
-        <v>0.11855812155036971</v>
+        <v>0.53295671306836423</v>
       </c>
       <c r="J107" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.67978155679318975</v>
+        <v>0.33479786218268059</v>
       </c>
       <c r="K107" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.24666725749006246</v>
+        <v>0.37930906535786413</v>
       </c>
       <c r="L107" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.791454914584373</v>
+        <v>0.60660859137029155</v>
       </c>
       <c r="M107" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.53995254960673711</v>
+        <v>0.6276755019067134</v>
       </c>
       <c r="N107" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.66576284901749172</v>
+        <v>0.56656881855261954</v>
       </c>
       <c r="O107" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.47640337934010679</v>
+        <v>0.34151340261201835</v>
       </c>
       <c r="P107" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>7.743923520117113E-2</v>
+        <v>0.8490153070192068</v>
       </c>
       <c r="Q107" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.13634126004309888</v>
+        <v>0.4393883006737882</v>
       </c>
       <c r="R107" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.88292719042414924</v>
+        <v>0.56377547609918388</v>
       </c>
       <c r="S107" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.7409207956417927</v>
+        <v>0.1659489414990778</v>
       </c>
       <c r="T107" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.62557687979188037</v>
+        <v>0.96787297128106664</v>
       </c>
       <c r="U107" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.6870199071004206</v>
+        <v>0.2389022695463956</v>
       </c>
       <c r="V107" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.59968882092965781</v>
+        <v>0.2245091942418489</v>
       </c>
       <c r="W107" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.72878992506693752</v>
+        <v>0.21947340970855811</v>
       </c>
       <c r="X107" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.20097721077592579</v>
+        <v>0.76642590348488704</v>
       </c>
       <c r="Y107" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.50954414546391102</v>
+        <v>0.79692067201986705</v>
       </c>
       <c r="Z107" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.29607947546447511</v>
+        <v>0.66659770748893754</v>
       </c>
       <c r="AA107" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>5.4406747549852086E-2</v>
+        <v>0.86183692602803408</v>
       </c>
       <c r="AB107" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.10277277172729626</v>
+        <v>0.67291808310915224</v>
       </c>
       <c r="AC107" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.48003488525905846</v>
+        <v>0.85146704483810709</v>
       </c>
       <c r="AD107" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.3551867396158791</v>
+        <v>0.32048612635461826</v>
       </c>
       <c r="AE107" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.53343952372282943</v>
+        <v>0.77885941152960247</v>
       </c>
       <c r="AF107" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.61987243714927465</v>
+        <v>0.84500733142006201</v>
       </c>
       <c r="AG107" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.87806293667394575</v>
+        <v>0.97563373211322646</v>
       </c>
       <c r="AH107" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.69605069672496633</v>
+        <v>0.79446989120073908</v>
       </c>
       <c r="AI107" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.34827985224357072</v>
+        <v>0.59796756807089846</v>
       </c>
       <c r="AJ107" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.85793041247559543</v>
+        <v>0.59524299466260788</v>
       </c>
       <c r="AK107" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>3.6120488639460602E-3</v>
+        <v>0.80066807105028204</v>
       </c>
       <c r="AL107" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.28486096646420911</v>
+        <v>0.18180285336445989</v>
       </c>
       <c r="AM107" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.20441294702508184</v>
+        <v>0.2409323974757992</v>
       </c>
       <c r="AN107" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.7202595630207097</v>
+        <v>0.61242364437407115</v>
       </c>
       <c r="AO107" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>8.0481058141882555E-2</v>
+        <v>0.86306732313527212</v>
       </c>
       <c r="AP107" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.68080551653324417</v>
+        <v>0.73072778751493028</v>
       </c>
       <c r="AQ107" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.43682201397308695</v>
+        <v>1.0684490532755997E-2</v>
       </c>
       <c r="AR107" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.54995082544646168</v>
+        <v>0.40165235011481504</v>
       </c>
       <c r="AS107" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.24631888157365533</v>
+        <v>0.19405703746245162</v>
       </c>
       <c r="AT107" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>9.9926316830748374E-2</v>
+        <v>0.90821661821325694</v>
       </c>
       <c r="AU107" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.47134837709502997</v>
+        <v>0.38691760174170653</v>
       </c>
       <c r="AV107" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.47827044040855216</v>
+        <v>0.25972896059694939</v>
       </c>
       <c r="AW107" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.5248025647655441</v>
+        <v>0.14107193059024137</v>
       </c>
       <c r="AX107" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.9154624873440117</v>
+        <v>0.86637112000071415</v>
       </c>
       <c r="AY107" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.31562301815245108</v>
+        <v>0.53651210750274436</v>
       </c>
       <c r="AZ107" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.48170412291365339</v>
+        <v>0.44580274587305935</v>
       </c>
       <c r="BA107" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.89494847680110234</v>
+        <v>0.25566883206017865</v>
       </c>
       <c r="BB107" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.10418627454577778</v>
+        <v>0.1056960751674475</v>
       </c>
       <c r="BC107" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.74677747206834411</v>
+        <v>0.23011371314274887</v>
       </c>
       <c r="BD107" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.33344799125909064</v>
+        <v>0.32898951934345322</v>
       </c>
     </row>
   </sheetData>
@@ -5126,7 +5125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:Q57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
@@ -5476,7 +5475,7 @@
     <row r="33" spans="5:13" x14ac:dyDescent="0.25">
       <c r="H33">
         <f ca="1">RAND()</f>
-        <v>1.4863169649138808E-2</v>
+        <v>0.29038012702177973</v>
       </c>
       <c r="K33">
         <v>5</v>
@@ -5509,7 +5508,7 @@
     <row r="36" spans="5:13" x14ac:dyDescent="0.25">
       <c r="H36" s="7">
         <f ca="1">NOW()</f>
-        <v>44160.821947453704</v>
+        <v>44161.828300000001</v>
       </c>
     </row>
     <row r="46" spans="5:13" x14ac:dyDescent="0.25">
@@ -5526,177 +5525,177 @@
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <f ca="1">LOG(RANDBETWEEN(1,100))</f>
-        <v>1.9084850188786497</v>
+        <v>0.90308998699194354</v>
       </c>
       <c r="B50">
         <f t="shared" ref="B50:L57" ca="1" si="4">LOG(RANDBETWEEN(1,100))</f>
-        <v>0.90308998699194354</v>
+        <v>1.9493900066449128</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="4"/>
-        <v>1.2787536009528289</v>
+        <v>1.5563025007672873</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="4"/>
-        <v>1.568201724066995</v>
+        <v>1.8808135922807914</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="4"/>
-        <v>1.7242758696007889</v>
+        <v>1.6532125137753437</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="4"/>
-        <v>1.4471580313422192</v>
+        <v>1.3010299956639813</v>
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="4"/>
-        <v>1.8388490907372552</v>
+        <v>1.9637878273455553</v>
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="4"/>
-        <v>1.8512583487190752</v>
+        <v>1.8976270912904414</v>
       </c>
       <c r="I50">
         <f t="shared" ca="1" si="4"/>
-        <v>1.8976270912904414</v>
+        <v>1.954242509439325</v>
       </c>
       <c r="J50">
         <f t="shared" ca="1" si="4"/>
-        <v>1.6232492903979006</v>
+        <v>1.5185139398778875</v>
       </c>
       <c r="K50">
         <f t="shared" ca="1" si="4"/>
-        <v>1.8976270912904414</v>
+        <v>1.7160033436347992</v>
       </c>
       <c r="L50">
         <f t="shared" ca="1" si="4"/>
-        <v>0.6020599913279624</v>
+        <v>1.6720978579357175</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" ref="A51:A57" ca="1" si="5">LOG(RANDBETWEEN(1,100))</f>
-        <v>1.9138138523837167</v>
+        <v>1.7075701760979363</v>
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="4"/>
-        <v>1.5797835966168101</v>
+        <v>1.3979400086720377</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="4"/>
-        <v>1.4313637641589874</v>
+        <v>0.3010299956639812</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="4"/>
-        <v>1.968482948553935</v>
+        <v>1.3802112417116059</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="4"/>
-        <v>1.8864907251724818</v>
+        <v>1.9912260756924949</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="4"/>
-        <v>0.77815125038364363</v>
+        <v>1.6127838567197355</v>
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="4"/>
-        <v>1.9637878273455553</v>
+        <v>1.919078092376074</v>
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.7558748556724915</v>
+      </c>
+      <c r="J51">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.255272505103306</v>
+      </c>
+      <c r="K51">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="L51">
+        <f t="shared" ca="1" si="4"/>
         <v>1.9344984512435677</v>
-      </c>
-      <c r="I51">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.5797835966168101</v>
-      </c>
-      <c r="J51">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.8864907251724818</v>
-      </c>
-      <c r="K51">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.3617278360175928</v>
-      </c>
-      <c r="L51">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.9444826721501687</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" ca="1" si="5"/>
-        <v>1.9395192526186185</v>
+        <v>1.9030899869919435</v>
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="4"/>
-        <v>1.146128035678238</v>
+        <v>0.90308998699194354</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3979400086720377</v>
+        <v>1.1139433523068367</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="4"/>
-        <v>1.9822712330395684</v>
+        <v>1.9731278535996986</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3010299956639813</v>
+        <v>1.6127838567197355</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="4"/>
-        <v>1.9637878273455553</v>
+        <v>1.954242509439325</v>
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="4"/>
-        <v>1.7634279935629373</v>
+        <v>1.9731278535996986</v>
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3979400086720377</v>
+        <v>1.2304489213782739</v>
       </c>
       <c r="I52">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3979400086720377</v>
+        <v>0.77815125038364363</v>
       </c>
       <c r="J52">
         <f t="shared" ca="1" si="4"/>
-        <v>1.8750612633917001</v>
+        <v>1.4771212547196624</v>
       </c>
       <c r="K52">
         <f t="shared" ca="1" si="4"/>
-        <v>1.9084850188786497</v>
+        <v>1.6434526764861874</v>
       </c>
       <c r="L52">
         <f t="shared" ca="1" si="4"/>
-        <v>1.8692317197309762</v>
+        <v>1.6901960800285136</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" ca="1" si="5"/>
-        <v>1.6232492903979006</v>
+        <v>1.6127838567197355</v>
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="4"/>
-        <v>1.6020599913279623</v>
+        <v>1.8692317197309762</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="4"/>
-        <v>1.8325089127062364</v>
+        <v>1.3802112417116059</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="4"/>
-        <v>1.7403626894942439</v>
+        <v>1.8692317197309762</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="4"/>
-        <v>1.8325089127062364</v>
+        <v>2</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1.5563025007672873</v>
       </c>
       <c r="G53" s="11" t="e">
         <f>LOG(-1)</f>
@@ -5704,223 +5703,223 @@
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="4"/>
-        <v>1.2787536009528289</v>
+        <v>1.9777236052888478</v>
       </c>
       <c r="I53">
         <f t="shared" ca="1" si="4"/>
-        <v>1.7075701760979363</v>
+        <v>1.1139433523068367</v>
       </c>
       <c r="J53">
         <f t="shared" ca="1" si="4"/>
-        <v>1.7708520116421442</v>
+        <v>1.9912260756924949</v>
       </c>
       <c r="K53">
         <f t="shared" ca="1" si="4"/>
-        <v>0.95424250943932487</v>
+        <v>1.9777236052888478</v>
       </c>
       <c r="L53">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1.3222192947339193</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" ca="1" si="5"/>
-        <v>1.6627578316815741</v>
+        <v>1.5910646070264991</v>
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="4"/>
-        <v>1.8512583487190752</v>
+        <v>1.8388490907372552</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="4"/>
-        <v>1.4623979978989561</v>
+        <v>1.5185139398778875</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="4"/>
-        <v>1.9294189257142926</v>
+        <v>1.954242509439325</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="4"/>
+        <v>1.9867717342662448</v>
+      </c>
+      <c r="F54">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.6334684555795864</v>
+      </c>
+      <c r="G54">
+        <f t="shared" ca="1" si="4"/>
         <v>0.90308998699194354</v>
       </c>
-      <c r="F54">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.9590413923210936</v>
-      </c>
-      <c r="G54">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.7323937598229686</v>
-      </c>
       <c r="H54">
         <f t="shared" ca="1" si="4"/>
-        <v>1.7781512503836436</v>
+        <v>1.8388490907372552</v>
       </c>
       <c r="I54">
         <f t="shared" ca="1" si="4"/>
-        <v>1.8260748027008264</v>
+        <v>1.5797835966168101</v>
       </c>
       <c r="J54">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3222192947339193</v>
+        <v>1.6901960800285136</v>
       </c>
       <c r="K54">
         <f t="shared" ca="1" si="4"/>
-        <v>1.9493900066449128</v>
+        <v>1.9777236052888478</v>
       </c>
       <c r="L54">
         <f t="shared" ca="1" si="4"/>
-        <v>1.4913616938342726</v>
+        <v>1.8808135922807914</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" ca="1" si="5"/>
-        <v>1.8573324964312685</v>
+        <v>1.7708520116421442</v>
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="4"/>
-        <v>1.4471580313422192</v>
+        <v>1.6901960800285136</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="4"/>
-        <v>1.954242509439325</v>
+        <v>1.968482948553935</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="4"/>
+        <v>1.9344984512435677</v>
+      </c>
+      <c r="E55">
+        <f t="shared" ca="1" si="4"/>
         <v>1.9867717342662448</v>
       </c>
-      <c r="E55">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.9444826721501687</v>
-      </c>
       <c r="F55">
         <f t="shared" ca="1" si="4"/>
-        <v>1.6812412373755872</v>
+        <v>1.9822712330395684</v>
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3222192947339193</v>
+        <v>1.3424226808222062</v>
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="4"/>
-        <v>1.7781512503836436</v>
+        <v>0.95424250943932487</v>
       </c>
       <c r="I55">
         <f t="shared" ca="1" si="4"/>
-        <v>1.5185139398778875</v>
+        <v>1.9242792860618816</v>
       </c>
       <c r="J55">
         <f t="shared" ca="1" si="4"/>
-        <v>0.47712125471966244</v>
+        <v>1.2304489213782739</v>
       </c>
       <c r="K55">
         <f t="shared" ca="1" si="4"/>
-        <v>1.9590413923210936</v>
+        <v>1.3617278360175928</v>
       </c>
       <c r="L55">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3979400086720377</v>
+        <v>0.84509804001425681</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" ca="1" si="5"/>
-        <v>1.8692317197309762</v>
+        <v>0.3010299956639812</v>
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="4"/>
+        <v>0.77815125038364363</v>
+      </c>
+      <c r="C56">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.6627578316815741</v>
+      </c>
+      <c r="D56">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.6989700043360187</v>
+      </c>
+      <c r="E56">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.9444826721501687</v>
+      </c>
+      <c r="F56">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.414973347970818</v>
+      </c>
+      <c r="G56">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.9344984512435677</v>
+      </c>
+      <c r="H56">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.8325089127062364</v>
+      </c>
+      <c r="I56">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.3802112417116059</v>
+      </c>
+      <c r="J56">
+        <f t="shared" ca="1" si="4"/>
         <v>1.8750612633917001</v>
       </c>
-      <c r="C56">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.7558748556724915</v>
-      </c>
-      <c r="D56">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.4623979978989561</v>
-      </c>
-      <c r="E56">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.84509804001425681</v>
-      </c>
-      <c r="F56">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.5563025007672873</v>
-      </c>
-      <c r="G56">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.7781512503836436</v>
-      </c>
-      <c r="H56">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.8573324964312685</v>
-      </c>
-      <c r="I56">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.919078092376074</v>
-      </c>
-      <c r="J56">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.954242509439325</v>
-      </c>
       <c r="K56">
         <f t="shared" ca="1" si="4"/>
-        <v>1.8864907251724818</v>
+        <v>1.8750612633917001</v>
       </c>
       <c r="L56">
         <f t="shared" ca="1" si="4"/>
-        <v>1.4313637641589874</v>
+        <v>1.0413926851582251</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" ca="1" si="5"/>
-        <v>1.2304489213782739</v>
+        <v>0.90308998699194354</v>
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="4"/>
-        <v>1.9590413923210936</v>
+        <v>1.1139433523068367</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="4"/>
-        <v>1.954242509439325</v>
+        <v>1.5797835966168101</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3222192947339193</v>
+        <v>1.3424226808222062</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="4"/>
-        <v>1.9731278535996986</v>
+        <v>1.5910646070264991</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="4"/>
-        <v>1.7075701760979363</v>
+        <v>1.146128035678238</v>
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="4"/>
-        <v>1.9822712330395684</v>
+        <v>1.255272505103306</v>
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="4"/>
-        <v>1.6627578316815741</v>
+        <v>1.8061799739838871</v>
       </c>
       <c r="I57">
         <f t="shared" ca="1" si="4"/>
-        <v>1.8512583487190752</v>
+        <v>1.2787536009528289</v>
       </c>
       <c r="J57">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>1.7993405494535817</v>
       </c>
       <c r="K57">
         <f t="shared" ca="1" si="4"/>
-        <v>1.5185139398778875</v>
+        <v>1.4623979978989561</v>
       </c>
       <c r="L57">
         <f t="shared" ca="1" si="4"/>
-        <v>0.69897000433601886</v>
+        <v>1.3424226808222062</v>
       </c>
     </row>
   </sheetData>
@@ -5944,12 +5943,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6156,15 +6152,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F4447F3-9C2C-4335-BE6F-FF9BA2F7DAB0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{761DAA0E-86C0-43E1-BFD1-B5379680D408}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6189,10 +6189,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{761DAA0E-86C0-43E1-BFD1-B5379680D408}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F4447F3-9C2C-4335-BE6F-FF9BA2F7DAB0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>